--- a/coverity_dashboard_optA.xlsx
+++ b/coverity_dashboard_optA.xlsx
@@ -200,384 +200,6 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="26"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>todo-go – Radar (First vs Last)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <radarChart>
-        <radarStyle val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_todo-go'!B7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Dashboard_todo-go'!$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_todo-go'!$B$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_todo-go'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Dashboard_todo-go'!$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_todo-go'!$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </radarChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>webgoat – First vs Last Snapshot</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_webgoat'!B7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Dashboard_webgoat'!$A$8:$A$15</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_webgoat'!$B$8:$B$15</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_webgoat'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Dashboard_webgoat'!$A$8:$A$15</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_webgoat'!$C$8:$C$15</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Category</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="26"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>webgoat – Radar (First vs Last)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <radarChart>
-        <radarStyle val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_webgoat'!B7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Dashboard_webgoat'!$A$8:$A$15</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_webgoat'!$B$8:$B$15</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_webgoat'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Dashboard_webgoat'!$A$8:$A$15</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_webgoat'!$C$8:$C$15</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </radarChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -647,7 +269,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>crm-test – First vs Last Snapshot</a:t>
+              <a:t>crm-test – Total Defects Comparison</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -660,11 +282,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_crm-test'!B7</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
@@ -672,36 +289,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard_crm-test'!$A$8:$A$13</f>
+              <f>'Dashboard_crm-test'!$A$8:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_crm-test'!$B$8:$B$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_crm-test'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Dashboard_crm-test'!$A$8:$A$13</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_crm-test'!$C$8:$C$13</f>
+              <f>'Dashboard_crm-test'!$B$8:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -724,7 +317,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Category</a:t>
+                  <a:t>Snapshot</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -751,7 +344,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Count</a:t>
+                  <a:t>Total Defects</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -773,7 +366,6 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="26"/>
   <chart>
     <title>
       <tx>
@@ -784,88 +376,60 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>crm-test – Radar (First vs Last)</a:t>
+              <a:t>jenkins – Total Defects Comparison</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
     </title>
     <plotArea>
-      <radarChart>
-        <radarStyle val="standard"/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_crm-test'!B7</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
           <cat>
             <numRef>
-              <f>'Dashboard_crm-test'!$A$8:$A$13</f>
+              <f>'Dashboard_jenkins'!$A$8:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_crm-test'!$B$8:$B$13</f>
+              <f>'Dashboard_jenkins'!$B$8:$B$9</f>
             </numRef>
           </val>
         </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_crm-test'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Dashboard_crm-test'!$A$8:$A$13</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_crm-test'!$C$8:$C$13</f>
-            </numRef>
-          </val>
-        </ser>
+        <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
-      </radarChart>
+      </barChart>
       <catAx>
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Snapshot</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -878,6 +442,21 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Defects</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -904,7 +483,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>jenkins – First vs Last Snapshot</a:t>
+              <a:t>online-shop-backend – Total Defects Comparison</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -917,11 +496,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_jenkins'!B7</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
@@ -929,36 +503,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard_jenkins'!$A$8:$A$9</f>
+              <f>'Dashboard_online-shop-backend'!$A$8:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_jenkins'!$B$8:$B$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_jenkins'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Dashboard_jenkins'!$A$8:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_jenkins'!$C$8:$C$9</f>
+              <f>'Dashboard_online-shop-backend'!$B$8:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -981,7 +531,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Category</a:t>
+                  <a:t>Snapshot</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1008,7 +558,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Count</a:t>
+                  <a:t>Total Defects</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1030,7 +580,6 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="26"/>
   <chart>
     <title>
       <tx>
@@ -1041,88 +590,60 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>jenkins – Radar (First vs Last)</a:t>
+              <a:t>todo-go – Total Defects Comparison</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
     </title>
     <plotArea>
-      <radarChart>
-        <radarStyle val="standard"/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_jenkins'!B7</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
           <cat>
             <numRef>
-              <f>'Dashboard_jenkins'!$A$8:$A$9</f>
+              <f>'Dashboard_todo-go'!$A$8:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_jenkins'!$B$8:$B$9</f>
+              <f>'Dashboard_todo-go'!$B$8:$B$9</f>
             </numRef>
           </val>
         </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_jenkins'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Dashboard_jenkins'!$A$8:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_jenkins'!$C$8:$C$9</f>
-            </numRef>
-          </val>
-        </ser>
+        <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
-      </radarChart>
+      </barChart>
       <catAx>
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Snapshot</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -1135,6 +656,21 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Defects</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -1161,7 +697,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>online-shop-backend – First vs Last Snapshot</a:t>
+              <a:t>webgoat – Total Defects Comparison</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1174,11 +710,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_online-shop-backend'!B7</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
@@ -1186,36 +717,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Dashboard_online-shop-backend'!$A$8:$A$9</f>
+              <f>'Dashboard_webgoat'!$A$8:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dashboard_online-shop-backend'!$B$8:$B$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_online-shop-backend'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Dashboard_online-shop-backend'!$A$8:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_online-shop-backend'!$C$8:$C$9</f>
+              <f>'Dashboard_webgoat'!$B$8:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -1238,7 +745,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Category</a:t>
+                  <a:t>Snapshot</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1265,264 +772,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="26"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>online-shop-backend – Radar (First vs Last)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <radarChart>
-        <radarStyle val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_online-shop-backend'!B7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Dashboard_online-shop-backend'!$A$8:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_online-shop-backend'!$B$8:$B$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_online-shop-backend'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Dashboard_online-shop-backend'!$A$8:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_online-shop-backend'!$C$8:$C$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </radarChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>todo-go – First vs Last Snapshot</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_todo-go'!B7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Dashboard_todo-go'!$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_todo-go'!$B$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Dashboard_todo-go'!C7</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Dashboard_todo-go'!$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Dashboard_todo-go'!$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Category</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Count</a:t>
+                  <a:t>Total Defects</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1595,7 +845,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>4</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -1615,28 +865,6 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1644,7 +872,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>4</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -1664,28 +892,6 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1693,7 +899,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>4</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -1713,28 +919,6 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1742,7 +926,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>4</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -1762,28 +946,6 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1791,7 +953,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>4</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -1806,28 +968,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -24046,7 +23186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24066,168 +23206,66 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Total FIRST</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>26</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total LAST</t>
+          <t>Total FIRST</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Total LAST</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Delta (LAST - FIRST)</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Delta</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Control Flow Issues</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>High Impact Security</t>
+          <t>first</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Low Impact Security</t>
+          <t>last</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Medium Impact Security</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Null Pointer Dereferences</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Resource Leaks</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sigma</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>16</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -24242,7 +23280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24262,20 +23300,10 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Total FIRST</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total LAST</t>
+          <t>Total FIRST</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -24285,81 +23313,53 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Total LAST</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Delta (LAST - FIRST)</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Delta</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>High Impact Security</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Medium Impact Security</t>
+          <t>first</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sigma</t>
+          <t>last</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -24374,7 +23374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24394,20 +23394,10 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Total FIRST</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>28</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total LAST</t>
+          <t>Total FIRST</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -24417,81 +23407,53 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Total LAST</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Delta (LAST - FIRST)</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Delta</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Exceptional Resource Leaks</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>High Impact Security</t>
+          <t>first</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sigma</t>
+          <t>last</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -24506,7 +23468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24526,88 +23488,66 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Total FIRST</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total LAST</t>
+          <t>Total FIRST</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Total LAST</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Delta (LAST - FIRST)</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Delta</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Low Impact Security</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1</v>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Medium Impact Security</t>
+          <t>first</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -24622,7 +23562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24642,200 +23582,66 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Total FIRST</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>141</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total LAST</t>
+          <t>Total FIRST</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>247</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Total LAST</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Delta (LAST - FIRST)</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>106</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Delta</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Control Flow Issues</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-5</v>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>High Impact Security</t>
+          <t>first</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>86</v>
-      </c>
-      <c r="D8" t="n">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Incorrect Expression</t>
+          <t>last</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Insecure Random Category</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Low Impact Security</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Medium Impact Security</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>39</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Null Pointer Dereferences</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Resource Leaks</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sigma</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>92</v>
-      </c>
-      <c r="C15" t="n">
-        <v>116</v>
-      </c>
-      <c r="D15" t="n">
-        <v>24</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/coverity_dashboard_optA.xlsx
+++ b/coverity_dashboard_optA.xlsx
@@ -259,6 +259,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -298,6 +299,9 @@
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -366,6 +370,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -405,6 +410,9 @@
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -473,6 +481,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -512,6 +521,9 @@
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -580,6 +592,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -619,6 +632,9 @@
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -687,6 +703,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -726,6 +743,9 @@
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
